--- a/eRCaGuy_analogReadXXbit Library Speed Calcs - Gabriel.xlsx
+++ b/eRCaGuy_analogReadXXbit Library Speed Calcs - Gabriel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Resolution</t>
   </si>
@@ -89,22 +89,6 @@
   </si>
   <si>
     <t>start at 1023, double each time</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Max ADC Reading </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(divide by this val when calculating V at pin)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -551,6 +535,73 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <r>
+      <t>Max ADC Reading, Rdg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(divide by this val when calculating V at pin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eqn: 5/Rdg</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*1000</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -563,7 +614,7 @@
     <numFmt numFmtId="166" formatCode="0.000\ &quot;Hz&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0000\ &quot;Hz&quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +787,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -993,7 +1061,6 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1075,6 +1142,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,6 +1376,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="1400175"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1598,15 +1718,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -1617,69 +1738,71 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:31" ht="55.5" customHeight="1" thickBot="1">
-      <c r="B2" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="27"/>
+      <c r="B2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="26"/>
       <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:31" ht="19.5">
       <c r="B3" s="5"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="25" t="s">
-        <v>13</v>
+      <c r="D3" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>22</v>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>21</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="60" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="60"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="8"/>
-      <c r="P4" s="25" t="s">
-        <v>13</v>
+      <c r="P4" s="24" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:31" s="1" customFormat="1" ht="96.75" thickBot="1">
+    <row r="5" spans="2:31" s="1" customFormat="1" ht="94.5" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1687,34 +1810,34 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="55" t="s">
-        <v>33</v>
+      <c r="P5" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>11</v>
@@ -1733,8 +1856,8 @@
         <v>1023</v>
       </c>
       <c r="E6" s="11">
-        <f>5/2^B6*1000</f>
-        <v>4.8828125</v>
+        <f>5/D6*1000</f>
+        <v>4.8875855327468232</v>
       </c>
       <c r="F6" s="12">
         <f>4^(B6-10)</f>
@@ -1743,26 +1866,26 @@
       <c r="G6" s="13">
         <v>8300</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <f t="shared" ref="H6:H17" si="0">1/G6</f>
         <v>1.2048192771084337E-4</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <f t="shared" ref="I6:I17" si="1">G6/2</f>
         <v>4150</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f>G6/10</f>
         <v>830</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="12">
         <f>2^B6-1</f>
         <v>1023</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <f>$D$6*2^C6</f>
         <v>1023</v>
       </c>
@@ -1783,8 +1906,8 @@
         <v>2046</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" ref="E7:E17" si="4">5/2^B7*1000</f>
-        <v>2.44140625</v>
+        <f t="shared" ref="E7:E17" si="4">5/D7*1000</f>
+        <v>2.4437927663734116</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" ref="F7:F17" si="5">4^(B7-10)</f>
@@ -1794,30 +1917,30 @@
         <f>$G$6/F7</f>
         <v>2075</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>4.8192771084337347E-4</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <f t="shared" si="1"/>
         <v>1037.5</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <f t="shared" ref="J7:J17" si="6">G7/10</f>
         <v>207.5</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="12">
         <f t="shared" ref="N7:N17" si="7">2^B7-1</f>
         <v>2047</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <f t="shared" ref="P7:P17" si="8">$D$6*2^C7</f>
         <v>2046</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <f>2*Q6</f>
         <v>2046</v>
       </c>
@@ -1836,7 +1959,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="4"/>
-        <v>1.220703125</v>
+        <v>1.2218963831867058</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="5"/>
@@ -1846,30 +1969,30 @@
         <f>$G$6/F8</f>
         <v>518.75</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>1.9277108433734939E-3</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f t="shared" si="1"/>
         <v>259.375</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <f t="shared" si="6"/>
         <v>51.875</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="12">
         <f t="shared" si="7"/>
         <v>4095</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <f t="shared" si="8"/>
         <v>4092</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <f t="shared" ref="Q8:Q17" si="9">2*Q7</f>
         <v>4092</v>
       </c>
@@ -1888,7 +2011,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="4"/>
-        <v>0.6103515625</v>
+        <v>0.6109481915933529</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="5"/>
@@ -1898,28 +2021,28 @@
         <f t="shared" ref="G9:G17" si="10">$G$6/F9</f>
         <v>129.6875</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>7.7108433734939755E-3</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <f t="shared" si="1"/>
         <v>64.84375</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <f t="shared" si="6"/>
         <v>12.96875</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="28"/>
       <c r="N9" s="12">
         <f t="shared" si="7"/>
         <v>8191</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="25">
         <f t="shared" si="8"/>
         <v>8184</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="25">
         <f t="shared" si="9"/>
         <v>8184</v>
       </c>
@@ -1938,7 +2061,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="4"/>
-        <v>0.30517578125</v>
+        <v>0.30547409579667645</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="5"/>
@@ -1948,28 +2071,28 @@
         <f t="shared" si="10"/>
         <v>32.421875</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
         <v>3.0843373493975902E-2</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <f t="shared" si="1"/>
         <v>16.2109375</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <f t="shared" si="6"/>
         <v>3.2421875</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="28"/>
       <c r="N10" s="12">
         <f t="shared" si="7"/>
         <v>16383</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="25">
         <f t="shared" si="8"/>
         <v>16368</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="25">
         <f t="shared" si="9"/>
         <v>16368</v>
       </c>
@@ -1988,38 +2111,38 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="4"/>
-        <v>0.152587890625</v>
+        <v>0.15273704789833822</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="5"/>
         <v>1024</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <f t="shared" si="10"/>
         <v>8.10546875</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
         <v>0.12337349397590361</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <f t="shared" si="1"/>
         <v>4.052734375</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <f t="shared" si="6"/>
         <v>0.810546875</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="28"/>
       <c r="N11" s="12">
         <f t="shared" si="7"/>
         <v>32767</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="25">
         <f t="shared" si="8"/>
         <v>32736</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="25">
         <f t="shared" si="9"/>
         <v>32736</v>
       </c>
@@ -2037,39 +2160,39 @@
         <v>65472</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="4"/>
-        <v>7.62939453125E-2</v>
+        <f>5/D12*1000</f>
+        <v>7.6368523949169112E-2</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="5"/>
         <v>4096</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f t="shared" si="10"/>
         <v>2.0263671875</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <f t="shared" si="0"/>
         <v>0.49349397590361443</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <f t="shared" si="1"/>
         <v>1.01318359375</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="38">
         <f t="shared" si="6"/>
         <v>0.20263671875</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="28"/>
       <c r="N12" s="12">
         <f t="shared" si="7"/>
         <v>65535</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="25">
         <f t="shared" si="8"/>
         <v>65472</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="25">
         <f t="shared" si="9"/>
         <v>65472</v>
       </c>
@@ -2088,38 +2211,38 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-2</v>
+        <v>3.8184261974584556E-2</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <f t="shared" si="10"/>
         <v>0.506591796875</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <f t="shared" si="0"/>
         <v>1.9739759036144577</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0.2532958984375</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="38">
         <f t="shared" si="6"/>
         <v>5.06591796875E-2</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="28"/>
       <c r="N13" s="12">
         <f t="shared" si="7"/>
         <v>131071</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="25">
         <f t="shared" si="8"/>
         <v>130944</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="25">
         <f t="shared" si="9"/>
         <v>130944</v>
       </c>
@@ -2138,38 +2261,38 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-2</v>
+        <v>1.9092130987292278E-2</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="5"/>
         <v>65536</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <f t="shared" si="10"/>
         <v>0.12664794921875</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <f t="shared" si="0"/>
         <v>7.895903614457831</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <f t="shared" si="1"/>
         <v>6.3323974609375E-2</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="38">
         <f t="shared" si="6"/>
         <v>1.2664794921875E-2</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="28"/>
       <c r="N14" s="12">
         <f t="shared" si="7"/>
         <v>262143</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <f t="shared" si="8"/>
         <v>261888</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <f t="shared" si="9"/>
         <v>261888</v>
       </c>
@@ -2188,38 +2311,38 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="4"/>
-        <v>9.5367431640625E-3</v>
+        <v>9.546065493646139E-3</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="5"/>
         <v>262144</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <f t="shared" si="10"/>
         <v>3.16619873046875E-2</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <f t="shared" si="0"/>
         <v>31.583614457831324</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <f t="shared" si="1"/>
         <v>1.583099365234375E-2</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="38">
         <f t="shared" si="6"/>
         <v>3.16619873046875E-3</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="28"/>
       <c r="N15" s="12">
         <f t="shared" si="7"/>
         <v>524287</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <f t="shared" si="8"/>
         <v>523776</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
         <f t="shared" si="9"/>
         <v>523776</v>
       </c>
@@ -2238,38 +2361,38 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="4"/>
-        <v>4.76837158203125E-3</v>
+        <v>4.7730327468230695E-3</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="5"/>
         <v>1048576</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <f t="shared" si="10"/>
         <v>7.915496826171875E-3</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>126.3344578313253</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <f t="shared" si="1"/>
         <v>3.9577484130859375E-3</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="38">
         <f t="shared" si="6"/>
         <v>7.915496826171875E-4</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="28"/>
       <c r="N16" s="12">
         <f t="shared" si="7"/>
         <v>1048575</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="25">
         <f t="shared" si="8"/>
         <v>1047552</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="25">
         <f t="shared" si="9"/>
         <v>1047552</v>
       </c>
@@ -2278,156 +2401,156 @@
       <c r="B17" s="15">
         <v>21</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" si="3"/>
         <v>2095104</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="11">
         <f t="shared" si="4"/>
-        <v>2.384185791015625E-3</v>
-      </c>
-      <c r="F17" s="17">
+        <v>2.3865163734115348E-3</v>
+      </c>
+      <c r="F17" s="16">
         <f t="shared" si="5"/>
         <v>4194304</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <f t="shared" si="10"/>
         <v>1.9788742065429688E-3</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <f t="shared" si="0"/>
         <v>505.33783132530118</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <f t="shared" si="1"/>
         <v>9.8943710327148438E-4</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="38">
         <f t="shared" si="6"/>
         <v>1.9788742065429688E-4</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="28"/>
       <c r="N17" s="12">
         <f t="shared" si="7"/>
         <v>2097151</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <f t="shared" si="8"/>
         <v>2095104</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <f t="shared" si="9"/>
         <v>2095104</v>
       </c>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="52"/>
+      <c r="B18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="53"/>
+      <c r="B19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="52"/>
       <c r="L19">
         <f>1000/51</f>
         <v>19.607843137254903</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15.75">
-      <c r="B20" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="42" t="s">
+      <c r="B20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="53"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="2:17" ht="15.75">
-      <c r="B21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="B21" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="53"/>
+      <c r="G21" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="53"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="53"/>
+      <c r="B23" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" spans="2:17" ht="15.75">
-      <c r="B24" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="54"/>
+      <c r="B24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/eRCaGuy_analogReadXXbit Library Speed Calcs - Gabriel.xlsx
+++ b/eRCaGuy_analogReadXXbit Library Speed Calcs - Gabriel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Resolution</t>
   </si>
@@ -602,6 +602,12 @@
       </rPr>
       <t>*1000</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Library webpage: </t>
+  </si>
+  <si>
+    <t>http://electricrcaircraftguy.blogspot.com/2014/05/using-arduino-unos-built-in-16-bit-adc.html</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
     <numFmt numFmtId="166" formatCode="0.000\ &quot;Hz&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0000\ &quot;Hz&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +810,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1034,7 +1048,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1128,6 +1142,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1143,9 +1160,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1718,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1736,19 +1754,26 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:31" ht="15.75" thickBot="1">
+      <c r="C1" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="2" spans="2:31" ht="55.5" customHeight="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="26"/>
       <c r="N2" t="s">
         <v>8</v>
@@ -1776,7 +1801,7 @@
       <c r="I3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="59" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="8"/>
@@ -1788,7 +1813,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="20"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="55" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="8"/>
@@ -1796,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="34"/>
-      <c r="J4" s="59"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="8"/>
       <c r="P4" s="24" t="s">
         <v>12</v>
@@ -2564,10 +2589,11 @@
     <hyperlink ref="C23" r:id="rId4"/>
     <hyperlink ref="G24" r:id="rId5"/>
     <hyperlink ref="E20" r:id="rId6"/>
+    <hyperlink ref="D1" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
